--- a/papers rev.xlsx
+++ b/papers rev.xlsx
@@ -250,14 +250,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="177"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -282,6 +274,14 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -330,7 +330,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -514,8 +514,8 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -525,12 +525,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -540,34 +540,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="40% - הדגשה1" xfId="2" builtinId="31"/>
+    <cellStyle name="60% - הדגשה6" xfId="2" builtinId="52"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="היפר-קישור" xfId="1" builtinId="8"/>
   </cellStyles>
